--- a/Excel Files/Australian_Housing_Sales.xlsx
+++ b/Excel Files/Australian_Housing_Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Data_Analyst_Projects_Excel\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7570A-D866-4636-8B64-DE368A5ED8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A581E4C5-5151-4E90-BB37-F238747B0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D26057CF-1C17-4E6B-B510-4FDA0BD5AC77}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="362">
   <si>
     <t>Address</t>
   </si>
@@ -1123,6 +1123,21 @@
   </si>
   <si>
     <t>Sold By</t>
+  </si>
+  <si>
+    <t>0-100K</t>
+  </si>
+  <si>
+    <t>100K-200K</t>
+  </si>
+  <si>
+    <t>200K-300K</t>
+  </si>
+  <si>
+    <t>300K-400K</t>
+  </si>
+  <si>
+    <t>400K-500K</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1244,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1241,6 +1277,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1284,9 +1325,45 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1840,16 +1917,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,7 +2720,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3995320" y="321028"/>
-          <a:ext cx="1608562" cy="838199"/>
+          <a:ext cx="1627612" cy="838199"/>
           <a:chOff x="7187110" y="364067"/>
           <a:chExt cx="1701479" cy="836083"/>
         </a:xfrm>
@@ -2960,7 +3037,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>102</a:t>
+            <a:t>131</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1800" b="1"/>
         </a:p>
@@ -2994,7 +3071,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5930195" y="329495"/>
+          <a:off x="5949245" y="329495"/>
           <a:ext cx="1731434" cy="781049"/>
           <a:chOff x="4095750" y="355600"/>
           <a:chExt cx="1733550" cy="781050"/>
@@ -3226,7 +3303,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9824156" y="321028"/>
+          <a:off x="9843206" y="321028"/>
           <a:ext cx="1648883" cy="781133"/>
           <a:chOff x="4081712" y="355600"/>
           <a:chExt cx="1645988" cy="781051"/>
@@ -3499,7 +3576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>71</a:t>
+            <a:t>88</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3540,7 +3617,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7888112" y="314679"/>
+          <a:off x="7907162" y="314679"/>
           <a:ext cx="1644361" cy="781332"/>
           <a:chOff x="4095750" y="355600"/>
           <a:chExt cx="1644650" cy="781050"/>
@@ -3818,7 +3895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>31</a:t>
+            <a:t>43</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3977,7 +4054,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>1710029</a:t>
+            <a:t>953581</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -4005,8 +4082,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>135115</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="52" name="Price Range 1">
@@ -4029,7 +4106,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7745,8 +7822,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{775B8004-9BA8-46DB-A0D9-AD7ABB6D8E23}" name="PivotTable11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
-  <location ref="B33:D40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{775B8004-9BA8-46DB-A0D9-AD7ABB6D8E23}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
+  <location ref="B33:D45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7824,8 +7901,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7878,7 +7955,22 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -7917,7 +8009,7 @@
     <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="10" baseItem="3" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="26">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7934,7 +8026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="45">
       <pivotArea field="10" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7943,7 +8035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7977,228 +8069,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12FBA658-F890-472A-8F31-E56349766D4E}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Num. of Bed &amp; Bath">
-  <location ref="F2:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" sumSubtotal="1">
-      <items count="10">
-        <item sd="0" x="4"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="8"/>
-        <item h="1" x="3"/>
-        <item t="sum"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="63">
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="61"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="56"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="53"/>
-        <item x="8"/>
-        <item x="52"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="51"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="3" baseItem="1"/>
-    <dataField name="Count of Property type" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="23">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="8">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A9C9821-45E2-48F7-8ACB-1B11B2984F10}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" rowHeaderCaption="Sold By">
-  <location ref="B10:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01ED6AE4-BCD1-42F9-814D-C63AB2A2597F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
+  <location ref="A12:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -8362,8 +8234,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8401,21 +8273,24 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
-      <x v="3"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="71"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="48"/>
     </i>
     <i t="grand">
       <x/>
@@ -8434,43 +8309,11 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Property Sold" fld="0" subtotal="count" baseField="2" baseItem="18"/>
-    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="2" baseItem="35"/>
+    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="2" baseItem="35" numFmtId="1"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="29">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="5">
-            <x v="3"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="35"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="5">
-            <x v="3"/>
-            <x v="21"/>
-            <x v="28"/>
-            <x v="35"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+  <formats count="1">
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
@@ -8479,79 +8322,6 @@
       </pivotArea>
     </format>
   </formats>
-  <conditionalFormats count="4">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="3"/>
-              <x v="21"/>
-              <x v="28"/>
-              <x v="35"/>
-              <x v="49"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="2" count="5">
-              <x v="3"/>
-              <x v="21"/>
-              <x v="28"/>
-              <x v="35"/>
-              <x v="49"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="6">
-              <x v="18"/>
-              <x v="19"/>
-              <x v="42"/>
-              <x v="48"/>
-              <x v="61"/>
-              <x v="71"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="6">
-              <x v="18"/>
-              <x v="19"/>
-              <x v="42"/>
-              <x v="48"/>
-              <x v="61"/>
-              <x v="71"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="2">
     <filter fld="2" type="captionNotEqual" evalOrder="-1" id="9" stringValue1="N/A">
@@ -8563,7 +8333,7 @@
         </filterColumn>
       </autoFilter>
     </filter>
-    <filter fld="2" type="count" evalOrder="-1" id="8" iMeasureFld="0">
+    <filter fld="2" type="count" evalOrder="-1" id="11" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <top10 val="5" filterVal="5"/>
@@ -8582,448 +8352,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9918C6E-21F1-4AEB-8D02-3E01FE805F55}" name="PivotTable16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Num. of Bed &amp; Bath">
-  <location ref="B20:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" sumSubtotal="1">
-      <items count="10">
-        <item sd="0" x="4"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="8"/>
-        <item h="1" x="3"/>
-        <item t="sum"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="63">
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="61"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="56"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="53"/>
-        <item x="8"/>
-        <item x="52"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="51"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="3" baseItem="1"/>
-    <dataField name="Count of Property type" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="30">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="8">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F867B2BC-8751-49B5-B2AF-1DA22BB52225}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
-  <location ref="A21:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="63">
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="61"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="57"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="56"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="53"/>
-        <item x="8"/>
-        <item x="52"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="51"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Properties Sold" fld="0" subtotal="count" baseField="10" baseItem="0"/>
-    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="10" baseItem="3" numFmtId="1"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="20">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="captionNotEqual" evalOrder="-1" id="9" stringValue1="N/A">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="notEqual" val="N/A"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01ED6AE4-BCD1-42F9-814D-C63AB2A2597F}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
-  <location ref="A12:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A9C9821-45E2-48F7-8ACB-1B11B2984F10}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" rowHeaderCaption="Sold By">
+  <location ref="B10:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -9187,8 +8518,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9226,21 +8557,24 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
-      <x v="3"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="71"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="48"/>
     </i>
     <i t="grand">
       <x/>
@@ -9259,11 +8593,43 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Property Sold" fld="0" subtotal="count" baseField="2" baseItem="18"/>
-    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="2" baseItem="35" numFmtId="1"/>
+    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="2" baseItem="35"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="21">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+  <formats count="5">
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="5">
+            <x v="3"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="35"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="5">
+            <x v="3"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="35"/>
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
@@ -9271,7 +8637,104 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="61"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
+  <conditionalFormats count="4">
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="6">
+              <x v="18"/>
+              <x v="19"/>
+              <x v="42"/>
+              <x v="48"/>
+              <x v="61"/>
+              <x v="71"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6">
+              <x v="18"/>
+              <x v="19"/>
+              <x v="42"/>
+              <x v="48"/>
+              <x v="61"/>
+              <x v="71"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="2" count="5">
+              <x v="3"/>
+              <x v="21"/>
+              <x v="28"/>
+              <x v="35"/>
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="5">
+              <x v="3"/>
+              <x v="21"/>
+              <x v="28"/>
+              <x v="35"/>
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="2">
     <filter fld="2" type="captionNotEqual" evalOrder="-1" id="9" stringValue1="N/A">
@@ -9283,7 +8746,7 @@
         </filterColumn>
       </autoFilter>
     </filter>
-    <filter fld="2" type="count" evalOrder="-1" id="11" iMeasureFld="0">
+    <filter fld="2" type="count" evalOrder="-1" id="8" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <top10 val="5" filterVal="5"/>
@@ -9302,8 +8765,449 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{481AB309-F21E-4E05-BCF6-916C96F6A4C0}" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9918C6E-21F1-4AEB-8D02-3E01FE805F55}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Num. of Bed &amp; Bath">
+  <location ref="B20:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" sumSubtotal="1">
+      <items count="10">
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item h="1" x="3"/>
+        <item t="sum"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="63">
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="61"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="57"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="56"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="53"/>
+        <item x="8"/>
+        <item x="52"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="51"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="3" baseItem="1"/>
+    <dataField name="Count of Property type" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="50">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="8">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12FBA658-F890-472A-8F31-E56349766D4E}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Num. of Bed &amp; Bath">
+  <location ref="F2:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" sumSubtotal="1">
+      <items count="10">
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item h="1" x="3"/>
+        <item t="sum"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="63">
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="61"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="57"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="56"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="53"/>
+        <item x="8"/>
+        <item x="52"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="51"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="3" baseItem="1"/>
+    <dataField name="Count of Property type" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="40">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="8">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{481AB309-F21E-4E05-BCF6-916C96F6A4C0}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G14:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9401,8 +9305,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9442,7 +9346,7 @@
   </rowFields>
   <rowItems count="1">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -9452,7 +9356,7 @@
     <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="8" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9468,8 +9372,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{878BB19A-88E7-4292-B701-EC7B00193782}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{878BB19A-88E7-4292-B701-EC7B00193782}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -9554,8 +9458,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9622,9 +9526,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A755643-B61C-47AE-B31C-FD9677994C00}" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A755643-B61C-47AE-B31C-FD9677994C00}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -9708,8 +9612,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9762,7 +9666,22 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -9800,8 +9719,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C814D50E-37D3-4EF2-8F16-B5FC58D34C0C}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="9">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C814D50E-37D3-4EF2-8F16-B5FC58D34C0C}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="9">
   <location ref="A36:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -9880,8 +9799,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9998,6 +9917,227 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F867B2BC-8751-49B5-B2AF-1DA22BB52225}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1">
+  <location ref="A21:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="63">
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="61"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="57"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="56"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="53"/>
+        <item x="8"/>
+        <item x="52"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="51"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Properties Sold" fld="0" subtotal="count" baseField="10" baseItem="0"/>
+    <dataField name="Average of Sale Price" fld="6" subtotal="average" baseField="10" baseItem="3" numFmtId="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="42">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="captionNotEqual" evalOrder="-1" id="9" stringValue1="N/A">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="notEqual" val="N/A"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{4EEE7D46-BDE7-49B4-87A0-7F4E967612DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15" unboundColumnsRight="2">
@@ -10036,8 +10176,8 @@
   <data>
     <tabular pivotCacheId="346364169">
       <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -10053,17 +10193,17 @@
   <data>
     <tabular pivotCacheId="346364169">
       <items count="11">
+        <i x="8" s="1"/>
+        <i x="6" s="1"/>
+        <i x="10" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
         <i x="1" s="1"/>
         <i x="7" s="1"/>
         <i x="9" s="1"/>
         <i x="0" s="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -10094,20 +10234,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2804F667-B156-4105-A9B3-5864BB0204F3}" uniqueName="1" name="Address" queryTableFieldId="1" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{15F6D0FB-6640-469A-92F9-FEFBC7874154}" uniqueName="2" name="Property type" queryTableFieldId="2" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{8A089B9D-A438-4371-9E3F-A1E4ED30744B}" uniqueName="3" name="Sold by" queryTableFieldId="3" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{5D93A6F4-7F8A-4502-8810-CEA2F37985D2}" uniqueName="4" name="Bed" queryTableFieldId="4" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{B1EE8B82-635D-426A-89B0-DAE6E3147EF0}" uniqueName="5" name="Bath" queryTableFieldId="5" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{610C28CC-DFC5-4929-8C8A-A72F89225219}" uniqueName="6" name="Car" queryTableFieldId="6" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{2804F667-B156-4105-A9B3-5864BB0204F3}" uniqueName="1" name="Address" queryTableFieldId="1" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{15F6D0FB-6640-469A-92F9-FEFBC7874154}" uniqueName="2" name="Property type" queryTableFieldId="2" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{8A089B9D-A438-4371-9E3F-A1E4ED30744B}" uniqueName="3" name="Sold by" queryTableFieldId="3" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{5D93A6F4-7F8A-4502-8810-CEA2F37985D2}" uniqueName="4" name="Bed" queryTableFieldId="4" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{B1EE8B82-635D-426A-89B0-DAE6E3147EF0}" uniqueName="5" name="Bath" queryTableFieldId="5" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{610C28CC-DFC5-4929-8C8A-A72F89225219}" uniqueName="6" name="Car" queryTableFieldId="6" dataDxfId="56"/>
     <tableColumn id="7" xr3:uid="{A389D21F-F56C-43C3-8338-EB63E2FD7C2D}" uniqueName="7" name="Sale Price" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B1511FD3-CDB7-45D3-80AB-D84DC9A744AD}" uniqueName="8" name="Sale Date" queryTableFieldId="8" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{759E7178-EC25-496F-AD5F-76CEA3AF0C75}" uniqueName="9" name="Suburb" queryTableFieldId="9" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{0BBC0F44-69FF-4772-9513-D9E375ADA2C3}" uniqueName="10" name="Postcode" queryTableFieldId="10" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{153B025C-0826-4360-A5F6-398933B513AF}" uniqueName="11" name="Price Range" queryTableFieldId="11" dataDxfId="32">
+    <tableColumn id="8" xr3:uid="{B1511FD3-CDB7-45D3-80AB-D84DC9A744AD}" uniqueName="8" name="Sale Date" queryTableFieldId="8" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{759E7178-EC25-496F-AD5F-76CEA3AF0C75}" uniqueName="9" name="Suburb" queryTableFieldId="9" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{0BBC0F44-69FF-4772-9513-D9E375ADA2C3}" uniqueName="10" name="Postcode" queryTableFieldId="10" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{153B025C-0826-4360-A5F6-398933B513AF}" uniqueName="11" name="Price Range" queryTableFieldId="11" dataDxfId="52">
       <calculatedColumnFormula>IF(Austalian_Housing[[#This Row],[Sale Price]]&gt;1000000,"Above 1M",IF(AND(G2&lt;10000000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=900000),"900K-1M",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;900000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=800000),"800K-900K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;800000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=700000),"700K-800K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;700000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=600000),"600K-700K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;600000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=500000),"500K-600K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;500000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=400000),"400K-500K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;400000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=300000),"300K-400K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;300000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=200000),"200K-300K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;200000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=100000),"100K-200K",IF(AND(Austalian_Housing[[#This Row],[Sale Price]]&lt;100000,Austalian_Housing[[#This Row],[Sale Price]]&gt;=0),"0-100K")))))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{1237AC16-320F-4526-8808-B2DF731264B4}" uniqueName="12" name="Price Bracket" queryTableFieldId="12" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{1237AC16-320F-4526-8808-B2DF731264B4}" uniqueName="12" name="Price Bracket" queryTableFieldId="12" dataDxfId="51">
       <calculatedColumnFormula>_xlfn.IFS(Austalian_Housing[[#This Row],[Price Range]]="Above 1M","Luxury",VALUE(LEFT(Austalian_Housing[[#This Row],[Price Range]],FIND("K",Austalian_Housing[[#This Row],[Price Range]])-1))*1000&lt;400000,"Low",VALUE(LEFT(Austalian_Housing[[#This Row],[Price Range]],FIND("K",Austalian_Housing[[#This Row],[Price Range]])-1))*1000&lt;=800000,"Medium",TRUE,"High")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19781,10 +19921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D70EDA-2D8A-4114-8AA0-416E735C8977}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -19792,7 +19932,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19840,69 +19980,80 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="13">
+        <v>18</v>
       </c>
       <c r="D11" s="8">
-        <v>2149363.6363636362</v>
+        <v>931666.66666666663</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="13">
+        <v>6</v>
       </c>
       <c r="D12" s="8">
-        <v>3092000</v>
+        <v>1029333.3333333334</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1158333.3333333333</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>823600</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1492833.3333333333</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1275972</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="8">
-        <v>2467500</v>
+      <c r="D15" s="13">
+        <v>456347</v>
       </c>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1001250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C16">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2171351.3513513515</v>
+      <c r="C17" s="13">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8">
+        <v>926787.21951219509</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -19924,7 +20075,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="8">
-        <v>648750</v>
+        <v>442500</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
@@ -19932,32 +20083,32 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8">
-        <v>6980142</v>
+        <v>556566.70967741939</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23" s="8">
-        <v>998701.75438596494</v>
+        <v>1196225</v>
       </c>
       <c r="D23" s="8">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C24" s="8">
-        <v>1630785.7142857143</v>
+        <v>1304500</v>
       </c>
       <c r="D24" s="8">
         <v>14</v>
@@ -19965,45 +20116,23 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8">
-        <v>2986111.111111111</v>
+        <v>1767750</v>
       </c>
       <c r="D25" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="C26" s="8">
-        <v>3895125</v>
+        <v>1401000</v>
       </c>
       <c r="D26" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="8">
-        <v>5660000</v>
-      </c>
-      <c r="D27" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="8">
-        <v>4019858</v>
-      </c>
-      <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
@@ -20020,79 +20149,134 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
+        <v>357</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
       </c>
       <c r="D34" s="8">
-        <v>585000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
+        <v>358</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
       </c>
       <c r="D35" s="8">
-        <v>640000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
+        <v>359</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>748250</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
+        <v>360</v>
+      </c>
+      <c r="C37" s="13">
+        <v>6</v>
       </c>
       <c r="D37" s="8">
-        <v>841230.76923076925</v>
+        <v>353333.33333333331</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38">
-        <v>12</v>
+        <v>361</v>
+      </c>
+      <c r="C38" s="13">
+        <v>29</v>
       </c>
       <c r="D38" s="8">
-        <v>948833.33333333337</v>
+        <v>452189.58620689658</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39">
-        <v>56</v>
+        <v>338</v>
+      </c>
+      <c r="C39" s="13">
+        <v>18</v>
       </c>
       <c r="D39" s="8">
-        <v>2454857.1428571427</v>
+        <v>552777.77777777775</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="13">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8">
+        <v>636316.09523809527</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41" s="13">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8">
+        <v>738750</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="13">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8">
+        <v>866666.66666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8">
+        <v>946000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="13">
+        <v>41</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1828536.5853658537</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C40">
-        <v>102</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1710029.4117647058</v>
+      <c r="C45" s="13">
+        <v>131</v>
+      </c>
+      <c r="D45" s="8">
+        <v>953581.1908396947</v>
       </c>
     </row>
   </sheetData>
@@ -20100,7 +20284,7 @@
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="D11:D16">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -20114,7 +20298,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
+  <conditionalFormatting pivot="1" sqref="C11:C16">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -20128,7 +20312,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C11:D15">
+  <conditionalFormatting pivot="1">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -20142,7 +20326,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C11:C15">
+  <conditionalFormatting pivot="1">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -20156,7 +20340,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D21:D28">
+  <conditionalFormatting pivot="1" sqref="D21:D26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -20187,6 +20371,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>D11:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{0FCFA196-8514-4CB3-9BD1-E3264F1CFCDB}">
@@ -20199,6 +20384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>C11:C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{15C8474E-535C-4742-B1C7-B42E5560EA1F}">
@@ -20211,7 +20397,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C11:D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{EC8F4EFE-2EEE-49CD-AE64-F1E1B5BD6ED2}">
@@ -20224,7 +20409,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C11:C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{89240462-E7CA-43A8-AB95-B2A79AB6166D}">
@@ -20235,7 +20419,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D21:D28</xm:sqref>
+          <xm:sqref>D21:D26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -20250,7 +20434,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFD5DE1-FB1D-4A37-A543-DB9AEF3B44ED}">
-  <dimension ref="A2:H51"/>
+  <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -20290,7 +20474,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="8">
-        <v>648750</v>
+        <v>442500</v>
       </c>
       <c r="H3" s="8">
         <v>4</v>
@@ -20300,48 +20484,48 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>31</v>
+      <c r="B4" s="13">
+        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8">
-        <v>6980142</v>
+        <v>556566.70967741939</v>
       </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>71</v>
+      <c r="B5" s="13">
+        <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>998701.75438596494</v>
+        <v>1196225</v>
       </c>
       <c r="H5" s="8">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B6">
-        <v>102</v>
+      <c r="B6" s="13">
+        <v>131</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G6" s="8">
-        <v>1630785.7142857143</v>
+        <v>1304500</v>
       </c>
       <c r="H6" s="8">
         <v>14</v>
@@ -20349,45 +20533,23 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8">
-        <v>2986111.111111111</v>
+        <v>1767750</v>
       </c>
       <c r="H7" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="G8" s="8">
-        <v>3895125</v>
+        <v>1401000</v>
       </c>
       <c r="H8" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="8">
-        <v>5660000</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4019858</v>
-      </c>
-      <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -20404,24 +20566,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>18</v>
       </c>
       <c r="C13" s="8">
-        <v>2149363.6363636362</v>
+        <v>931666.66666666663</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="13">
+        <v>6</v>
       </c>
       <c r="C14" s="8">
-        <v>3092000</v>
+        <v>1029333.3333333334</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>332</v>
@@ -20432,52 +20594,63 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5</v>
       </c>
       <c r="C15" s="8">
-        <v>1158333.3333333333</v>
+        <v>823600</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="H15" s="8">
-        <v>1710029.4117647058</v>
+        <v>953581.1908396947</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4</v>
       </c>
       <c r="C16" s="8">
-        <v>1492833.3333333333</v>
+        <v>1275972</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="B17" s="13">
         <v>4</v>
       </c>
       <c r="C17" s="8">
-        <v>2467500</v>
+        <v>456347</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1001250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B18">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2171351.3513513515</v>
+      <c r="B19" s="13">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8">
+        <v>926787.21951219509</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -20493,82 +20666,137 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B22" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8">
-        <v>585000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B23" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>640000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B24" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>748250</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B25" s="13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>841230.76923076925</v>
+        <v>353333.33333333331</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B26" s="13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8">
-        <v>948833.33333333337</v>
+        <v>452189.58620689658</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B27" s="13">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C27" s="8">
-        <v>2454857.1428571427</v>
+        <v>552777.77777777775</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="13">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8">
+        <v>636316.09523809527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="13">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>738750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8">
+        <v>866666.66666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>946000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="13">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1828536.5853658537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B28" s="13">
-        <v>102</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1710029.4117647058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>131</v>
+      </c>
+      <c r="C33" s="8">
+        <v>953581.1908396947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>332</v>
       </c>
@@ -20576,99 +20804,124 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B37" s="13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B38" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B39" s="13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>345</v>
       </c>
       <c r="B40" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B41" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B42" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>333</v>
       </c>
       <c r="B43" s="13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>333</v>
       </c>
     </row>
